--- a/MercuryTour_Automation/DataTable.xlsx
+++ b/MercuryTour_Automation/DataTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sd420410\Working\Automation\MercuryTour_Automation\MercuryTour_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sd420410\source\repos\test2\MercuryTour_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807CADB1-76B4-40F4-BF43-0D7D4A9D85FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586D3A0-2323-4F84-92C6-70F598414170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="FindAFlight" sheetId="3" r:id="rId3"/>
+    <sheet name="BookFlight" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>UserName</t>
   </si>
@@ -114,6 +115,36 @@
   </si>
   <si>
     <t>Unified Airlines</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>FirstName1</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>LastName1</t>
+  </si>
+  <si>
+    <t>CreditNumber</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Ken</t>
   </si>
 </sst>
 </file>
@@ -547,10 +578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F1A0A7-52D0-4E38-9D77-56C015AA5E37}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +631,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -627,36 +658,76 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805EC3AD-B018-4B9B-A6E1-E1B52DA5F1EB}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
+        <v>9123</v>
       </c>
     </row>
   </sheetData>
